--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mac\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mac\Desktop\mopcon2021-attendee-badge-discord-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913D7F8C-C2FD-487F-B04D-8293BF7B2C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7C9BA9-82E1-423E-AE47-3B404864523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="660" windowWidth="21570" windowHeight="13290" xr2:uid="{E64523B2-5637-44AE-9AE0-941232D97A85}"/>
+    <workbookView xWindow="1740" yWindow="7695" windowWidth="17535" windowHeight="11955" xr2:uid="{E64523B2-5637-44AE-9AE0-941232D97A85}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,32 +45,66 @@
   </si>
   <si>
     <t>BFAA97174F1D2F4E881D9628CE834ED2CB64EE5F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>885459800740212817</t>
   </si>
   <si>
     <t>8B8BA90ABA61A064ECF35C63C96C9547C2BC237D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>892059375659786312</t>
+  </si>
+  <si>
+    <t>896704130393980958</t>
+  </si>
+  <si>
+    <t>897503964663275531</t>
+  </si>
+  <si>
+    <t>議程委員</t>
+  </si>
+  <si>
+    <t>DAKUO</t>
+  </si>
+  <si>
+    <t>鈦坦科技</t>
+  </si>
+  <si>
+    <t>講師</t>
+  </si>
+  <si>
+    <t>會眾</t>
+  </si>
+  <si>
+    <t>892059222135676948</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,9 +129,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,16 +453,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B9EE07-97F1-499D-8E0D-C5783BF86BD7}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -437,16 +477,56 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
